--- a/Attach/FactoryClient/FactoryClient/輸出模型.xlsx
+++ b/Attach/FactoryClient/FactoryClient/輸出模型.xlsx
@@ -1,15 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23B2412D-18D1-4A04-9C57-6D7D68EA9A7C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="2865" yWindow="2610" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -34,7 +43,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2">
     <font>
       <sz val="12"/>
@@ -76,7 +85,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -92,7 +101,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -167,6 +176,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -202,6 +228,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -377,17 +420,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="24.09765625" customWidth="1"/>
+    <col min="1" max="1" width="24.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -409,46 +452,24 @@
     </row>
     <row r="2" spans="1:5">
       <c r="C2" s="1"/>
-      <c r="E2">
-        <v>52</v>
-      </c>
     </row>
     <row r="3" spans="1:5">
       <c r="C3" s="1"/>
-      <c r="E3">
-        <v>89</v>
-      </c>
     </row>
     <row r="4" spans="1:5">
       <c r="C4" s="1"/>
-      <c r="E4">
-        <v>55</v>
-      </c>
     </row>
     <row r="5" spans="1:5">
       <c r="C5" s="1"/>
-      <c r="E5">
-        <v>24</v>
-      </c>
     </row>
     <row r="6" spans="1:5">
       <c r="C6" s="1"/>
-      <c r="E6">
-        <v>5</v>
-      </c>
     </row>
     <row r="7" spans="1:5">
       <c r="C7" s="1"/>
-      <c r="E7">
-        <v>6</v>
-      </c>
     </row>
     <row r="8" spans="1:5">
       <c r="C8" s="1"/>
-      <c r="E8">
-        <f>SUM(E2:E7)</f>
-        <v>231</v>
-      </c>
     </row>
     <row r="9" spans="1:5">
       <c r="C9" s="1"/>
